--- a/docs/mcode-r4/obf-DiagnosisCode-extension.xlsx
+++ b/docs/mcode-r4/obf-DiagnosisCode-extension.xlsx
@@ -216,7 +216,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/odh/StructureDefinition/obf-DiagnosisCode-extension</t>
+    <t>http://hl7.org/fhir/us/mcode/StructureDefinition/obf-DiagnosisCode-extension</t>
   </si>
   <si>
     <t>Extension.valueCodeableConcept</t>
